--- a/test data/troubleshoot.xlsx
+++ b/test data/troubleshoot.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="362">
   <si>
     <t>LEVELS</t>
   </si>
@@ -1434,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q235"/>
+  <dimension ref="A1:Y235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1445,7 +1445,7 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:25">
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:25">
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1956,8 +1956,11 @@
       <c r="M13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="Y13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:25">
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>

--- a/test data/troubleshoot.xlsx
+++ b/test data/troubleshoot.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="14160" windowHeight="5970"/>
+    <workbookView windowHeight="5970" windowWidth="14160" xWindow="240" yWindow="60"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -1108,6 +1108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -1135,17 +1136,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1154,10 +1155,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1313,7 +1314,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -1322,13 +1323,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1338,7 +1339,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1347,7 +1348,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1356,7 +1357,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1366,12 +1367,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -1402,7 +1403,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -1421,7 +1422,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -1442,7 +1443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -10349,8 +10350,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -10362,7 +10363,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -10374,6 +10375,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>